--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -465,20 +465,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CountryA</t>
+          <t>RD Congo</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2024</v>
+        <v>2005</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>2578306415.09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>500000000</v>
+        <v>7879012415.09</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>48.64</v>
       </c>
     </row>
   </sheetData>
